--- a/data/actiTIME.xlsx
+++ b/data/actiTIME.xlsx
@@ -7,22 +7,19 @@
     <workbookView windowWidth="25600" windowHeight="10180"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Bhanu</t>
+    <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>ADMIN</t>
@@ -30,36 +27,18 @@
   <si>
     <t>manager</t>
   </si>
-  <si>
-    <t>Pass: Home Page is displayed</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>damager</t>
-  </si>
-  <si>
-    <t>Fail: Home Page is not displayed</t>
-  </si>
-  <si>
-    <t>bhanu</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +48,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +153,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -99,45 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,74 +186,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,12 +200,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,25 +242,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,115 +314,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,15 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,30 +405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,10 +426,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,6 +448,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,151 +482,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,66 +960,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="9.4296875" customWidth="1"/>
     <col min="3" max="3" width="22.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
